--- a/carbon_footprint_results.xlsx
+++ b/carbon_footprint_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,23 +468,117 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>273.81</v>
+        <v>412.71</v>
       </c>
       <c r="C2" t="n">
-        <v>547.63</v>
+        <v>825.41</v>
       </c>
       <c r="D2" t="n">
-        <v>1369.07</v>
+        <v>2063.53</v>
       </c>
       <c r="E2" t="n">
-        <v>2738.14</v>
+        <v>4127.05</v>
       </c>
       <c r="F2" t="n">
-        <v>5476.28</v>
+        <v>8254.110000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1112.45</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2224.91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5562.26</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11124.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22249.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>668</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3340</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6680.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13360.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>576.73</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1153.46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2883.65</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5767.29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11534.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>105.82</v>
+      </c>
+      <c r="C6" t="n">
+        <v>211.64</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
   </sheetData>
